--- a/docentes/Rivera Serra Alma Lilian - Estadisticos 2020.xlsx
+++ b/docentes/Rivera Serra Alma Lilian - Estadisticos 2020.xlsx
@@ -477,10 +477,10 @@
         <v>33</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
       <c r="F2">
         <v>28</v>
@@ -489,7 +489,7 @@
         <v>84.84999999999999</v>
       </c>
       <c r="H2">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -503,10 +503,10 @@
         <v>33</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
       </c>
       <c r="F3">
         <v>28</v>
@@ -515,7 +515,7 @@
         <v>84.84999999999999</v>
       </c>
       <c r="H3">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -529,19 +529,19 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -597,16 +597,19 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>69.7</v>
+      </c>
+      <c r="H2">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -620,16 +623,19 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>78.79000000000001</v>
+      </c>
+      <c r="H3">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -643,16 +649,19 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -708,10 +717,10 @@
         <v>33</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
       <c r="F2">
         <v>28</v>
@@ -720,7 +729,7 @@
         <v>84.84999999999999</v>
       </c>
       <c r="H2">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -734,19 +743,19 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>84.84999999999999</v>
+        <v>90.91</v>
       </c>
       <c r="H3">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -760,19 +769,19 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Rivera Serra Alma Lilian - Estadisticos 2020.xlsx
+++ b/docentes/Rivera Serra Alma Lilian - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>JHOVANA</t>
   </si>
 </sst>
 </file>
@@ -597,19 +606,19 @@
         <v>33</v>
       </c>
       <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
       <c r="F2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>69.7</v>
+        <v>72.73</v>
       </c>
       <c r="H2">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -791,7 +800,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -824,6 +833,29 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>18330051920321</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Rivera Serra Alma Lilian - Estadisticos 2020.xlsx
+++ b/docentes/Rivera Serra Alma Lilian - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>Mat</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>FLORES</t>
   </si>
   <si>
+    <t>DOLORES</t>
+  </si>
+  <si>
     <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>JOEL EDUARDO</t>
   </si>
   <si>
     <t>JHOVANA</t>
@@ -800,7 +809,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -835,25 +844,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920321</v>
+        <v>18330051920248</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920321</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Rivera Serra Alma Lilian - Estadisticos 2020.xlsx
+++ b/docentes/Rivera Serra Alma Lilian - Estadisticos 2020.xlsx
@@ -615,7 +615,7 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -627,7 +627,7 @@
         <v>72.73</v>
       </c>
       <c r="H2">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -667,7 +667,7 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -679,7 +679,7 @@
         <v>80</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
   </sheetData>
@@ -790,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H4">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
